--- a/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L1_23,28_14_AVY1.xlsx
+++ b/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L1_23,28_14_AVY1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 23^J28 - Abtriebswelle 14 - Geber AV Y1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="11_AD4DB114E441178AC67DF434E6D6C60A683EDF25" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBA63B99-492A-4CE3-895D-83E4D1EF88D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -428,11 +422,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -900,12 +894,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,13 +936,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,7 +1014,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1043,7 +1049,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1220,83 +1226,83 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63:B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="4" width="16.54296875" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="65.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" customWidth="1"/>
+    <col min="9" max="9" width="44.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="12" max="12" width="65.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:20" ht="21">
+      <c r="A1" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="74" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="72" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="73"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="75"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="41"/>
       <c r="H2" s="17"/>
       <c r="I2" s="15"/>
@@ -1312,7 +1318,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>61</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="43.5">
       <c r="A4" s="7"/>
       <c r="B4" s="51"/>
       <c r="C4" s="8"/>
@@ -1408,7 +1414,7 @@
       </c>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="28"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1438,7 +1444,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="35"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1468,7 +1474,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="29">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -1554,11 +1560,13 @@
       <c r="S8" s="13"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="79">
+        <v>3</v>
+      </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
@@ -1588,7 +1596,7 @@
       <c r="S9" s="13"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="44" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1618,7 +1626,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="43.5">
       <c r="A11" s="54">
         <v>1</v>
       </c>
@@ -1670,11 +1678,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <v>2</v>
       </c>
       <c r="C12" s="14">
@@ -1704,11 +1712,13 @@
       <c r="S12" s="13"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="79">
+        <v>3</v>
+      </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
@@ -1738,11 +1748,13 @@
       <c r="S13" s="13"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="80">
+        <v>3</v>
+      </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
@@ -1772,7 +1784,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="29.5" thickBot="1">
       <c r="A15" s="28"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1802,7 +1814,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="29">
       <c r="A16" s="54">
         <v>1</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="57">
         <v>2</v>
       </c>
@@ -1888,11 +1900,13 @@
       <c r="S17" s="13"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="81">
+        <v>3</v>
+      </c>
       <c r="C18" s="8">
         <v>1</v>
       </c>
@@ -1922,11 +1936,13 @@
       <c r="S18" s="13"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="28">
         <v>2</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="82">
+        <v>3</v>
+      </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
@@ -1956,11 +1972,13 @@
       <c r="S19" s="13"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="29.5" thickBot="1">
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="83">
+        <v>3</v>
+      </c>
       <c r="C20" s="11">
         <v>8</v>
       </c>
@@ -1990,7 +2008,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="29.5" thickBot="1">
       <c r="A21" s="28"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2020,7 +2038,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="29">
       <c r="A22" s="7">
         <v>1</v>
       </c>
@@ -2072,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="10">
         <v>2</v>
       </c>
@@ -2106,11 +2124,13 @@
       <c r="S23" s="13"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="7">
         <v>1</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="81">
+        <v>3</v>
+      </c>
       <c r="C24" s="8">
         <v>1</v>
       </c>
@@ -2140,11 +2160,13 @@
       <c r="S24" s="13"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="28">
         <v>2</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="82">
+        <v>3</v>
+      </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
@@ -2174,11 +2196,13 @@
       <c r="S25" s="13"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="29.5" thickBot="1">
       <c r="A26" s="10">
         <v>3</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="83">
+        <v>3</v>
+      </c>
       <c r="C26" s="11">
         <v>8</v>
       </c>
@@ -2208,7 +2232,7 @@
       <c r="S26" s="13"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2238,7 +2262,7 @@
       <c r="S27" s="13"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="29">
       <c r="A28" s="7">
         <v>1</v>
       </c>
@@ -2292,7 +2316,7 @@
       </c>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="29.5" thickBot="1">
       <c r="A29" s="10">
         <v>2</v>
       </c>
@@ -2332,11 +2356,13 @@
       </c>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="81">
+        <v>3</v>
+      </c>
       <c r="C30" s="8">
         <v>1</v>
       </c>
@@ -2366,11 +2392,13 @@
       <c r="S30" s="13"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="28">
         <v>2</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="82">
+        <v>3</v>
+      </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
@@ -2400,11 +2428,13 @@
       <c r="S31" s="13"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="29.5" thickBot="1">
       <c r="A32" s="10">
         <v>3</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="83">
+        <v>3</v>
+      </c>
       <c r="C32" s="11">
         <v>8</v>
       </c>
@@ -2434,7 +2464,7 @@
       <c r="S32" s="13"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="43.5">
       <c r="A33" s="28"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2464,7 +2494,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="28"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2494,7 +2524,7 @@
       <c r="S34" s="13"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="29">
       <c r="A35" s="28"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2524,7 +2554,7 @@
       <c r="S35" s="13"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15" thickBot="1">
       <c r="A36" s="28"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2554,7 +2584,7 @@
       <c r="S36" s="13"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="43.5">
       <c r="A37" s="7">
         <v>1</v>
       </c>
@@ -2606,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="28">
         <v>2</v>
       </c>
@@ -2640,7 +2670,7 @@
       <c r="S38" s="13"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="15" thickBot="1">
       <c r="A39" s="10">
         <v>3</v>
       </c>
@@ -2653,7 +2683,7 @@
       <c r="D39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="63" t="s">
         <v>74</v>
       </c>
       <c r="F39" s="50" t="s">
@@ -2674,21 +2704,23 @@
       <c r="S39" s="13"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="77">
-        <v>1</v>
-      </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="79">
-        <v>1</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="80" t="s">
+    <row r="40" spans="1:20" ht="29.5" thickBot="1">
+      <c r="A40" s="65">
+        <v>1</v>
+      </c>
+      <c r="B40" s="84">
+        <v>3</v>
+      </c>
+      <c r="C40" s="66">
+        <v>1</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="66" t="s">
         <v>77</v>
       </c>
       <c r="G40" s="47">
@@ -2708,7 +2740,7 @@
       <c r="S40" s="13"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="43.5">
       <c r="A41" s="28"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2738,7 +2770,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="43.5">
       <c r="A42" s="28"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2768,7 +2800,7 @@
       <c r="S42" s="13"/>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="43.5">
       <c r="A43" s="28"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2798,7 +2830,7 @@
       <c r="S43" s="13"/>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="43.5">
       <c r="A44" s="28"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2828,7 +2860,7 @@
       <c r="S44" s="13"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="43.5">
       <c r="A45" s="28"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2858,7 +2890,7 @@
       <c r="S45" s="13"/>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="43.5">
       <c r="A46" s="28"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2888,7 +2920,7 @@
       <c r="S46" s="13"/>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="44" thickBot="1">
       <c r="A47" s="28"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2918,7 +2950,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="30"/>
     </row>
-    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="29">
       <c r="A48" s="7">
         <v>1</v>
       </c>
@@ -2970,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="28">
         <v>2</v>
       </c>
@@ -3004,7 +3036,7 @@
       <c r="S49" s="13"/>
       <c r="T49" s="30"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15" thickBot="1">
       <c r="A50" s="10">
         <v>3</v>
       </c>
@@ -3017,7 +3049,7 @@
       <c r="D50" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="63" t="s">
         <v>74</v>
       </c>
       <c r="F50" s="50" t="s">
@@ -3038,11 +3070,13 @@
       <c r="S50" s="13"/>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="29">
       <c r="A51" s="28">
         <v>1</v>
       </c>
-      <c r="B51" s="63"/>
+      <c r="B51" s="82">
+        <v>3</v>
+      </c>
       <c r="C51" s="13">
         <v>1</v>
       </c>
@@ -3072,11 +3106,13 @@
       <c r="S51" s="13"/>
       <c r="T51" s="30"/>
     </row>
-    <row r="52" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="29.5" thickBot="1">
       <c r="A52" s="10">
         <v>2</v>
       </c>
-      <c r="B52" s="53"/>
+      <c r="B52" s="83">
+        <v>3</v>
+      </c>
       <c r="C52" s="11">
         <v>2</v>
       </c>
@@ -3106,7 +3142,7 @@
       <c r="S52" s="13"/>
       <c r="T52" s="30"/>
     </row>
-    <row r="53" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="29.5" thickBot="1">
       <c r="A53" s="28"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3136,7 +3172,7 @@
       <c r="S53" s="13"/>
       <c r="T53" s="30"/>
     </row>
-    <row r="54" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="43.5">
       <c r="A54" s="7">
         <v>1</v>
       </c>
@@ -3188,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="28">
         <v>2</v>
       </c>
@@ -3222,7 +3258,7 @@
       <c r="S55" s="13"/>
       <c r="T55" s="30"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="15" thickBot="1">
       <c r="A56" s="10">
         <v>3</v>
       </c>
@@ -3235,7 +3271,7 @@
       <c r="D56" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" s="63" t="s">
         <v>74</v>
       </c>
       <c r="F56" s="50" t="s">
@@ -3256,11 +3292,13 @@
       <c r="S56" s="13"/>
       <c r="T56" s="30"/>
     </row>
-    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="29">
       <c r="A57" s="28">
         <v>1</v>
       </c>
-      <c r="B57" s="63"/>
+      <c r="B57" s="82">
+        <v>3</v>
+      </c>
       <c r="C57" s="13">
         <v>1</v>
       </c>
@@ -3290,11 +3328,13 @@
       <c r="S57" s="13"/>
       <c r="T57" s="30"/>
     </row>
-    <row r="58" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="29.5" thickBot="1">
       <c r="A58" s="10">
         <v>2</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="83">
+        <v>3</v>
+      </c>
       <c r="C58" s="11">
         <v>2</v>
       </c>
@@ -3324,7 +3364,7 @@
       <c r="S58" s="13"/>
       <c r="T58" s="30"/>
     </row>
-    <row r="59" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="44" thickBot="1">
       <c r="A59" s="28"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -3354,7 +3394,7 @@
       <c r="S59" s="13"/>
       <c r="T59" s="30"/>
     </row>
-    <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="43.5">
       <c r="A60" s="7">
         <v>1</v>
       </c>
@@ -3406,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="28">
         <v>2</v>
       </c>
@@ -3440,7 +3480,7 @@
       <c r="S61" s="13"/>
       <c r="T61" s="30"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15" thickBot="1">
       <c r="A62" s="10">
         <v>3</v>
       </c>
@@ -3453,7 +3493,7 @@
       <c r="D62" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="64" t="s">
+      <c r="E62" s="63" t="s">
         <v>74</v>
       </c>
       <c r="F62" s="50" t="s">
@@ -3474,11 +3514,13 @@
       <c r="S62" s="13"/>
       <c r="T62" s="30"/>
     </row>
-    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="29">
       <c r="A63" s="28">
         <v>1</v>
       </c>
-      <c r="B63" s="63"/>
+      <c r="B63" s="82">
+        <v>3</v>
+      </c>
       <c r="C63" s="13">
         <v>1</v>
       </c>
@@ -3508,11 +3550,13 @@
       <c r="S63" s="13"/>
       <c r="T63" s="30"/>
     </row>
-    <row r="64" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="29.5" thickBot="1">
       <c r="A64" s="10">
         <v>2</v>
       </c>
-      <c r="B64" s="53"/>
+      <c r="B64" s="83">
+        <v>3</v>
+      </c>
       <c r="C64" s="11">
         <v>2</v>
       </c>
@@ -3542,7 +3586,7 @@
       <c r="S64" s="13"/>
       <c r="T64" s="30"/>
     </row>
-    <row r="65" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="43.5">
       <c r="A65" s="28"/>
       <c r="B65" s="61"/>
       <c r="C65" s="13"/>
@@ -3572,7 +3616,7 @@
       <c r="S65" s="13"/>
       <c r="T65" s="30"/>
     </row>
-    <row r="66" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="73" thickBot="1">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>

--- a/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L1_23,28_14_AVY1.xlsx
+++ b/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L1_23,28_14_AVY1.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\SFU\i = 23,28 - Abtriebswelle 14 - Geber AV Y1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328443B-38B6-4231-9C26-F6D573D7687D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -422,11 +428,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,6 +909,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,27 +960,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1226,83 +1232,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63:B64"/>
+      <selection activeCell="B63" sqref="B63:B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.54296875" customWidth="1"/>
+    <col min="1" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="28.26953125" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" customWidth="1"/>
-    <col min="12" max="12" width="65.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="65.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" customWidth="1"/>
-    <col min="18" max="18" width="23.7265625" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="18" max="18" width="23.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="76" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="74" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="70" t="s">
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="81"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="68" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="41"/>
       <c r="H2" s="17"/>
       <c r="I2" s="15"/>
@@ -1318,7 +1321,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>61</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="43.5">
+    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="51"/>
       <c r="C4" s="8"/>
@@ -1414,7 +1417,7 @@
       </c>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1444,7 +1447,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="35"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1474,7 +1477,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" ht="29">
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -1560,11 +1563,11 @@
       <c r="S8" s="13"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="68">
         <v>3</v>
       </c>
       <c r="C9" s="2">
@@ -1596,7 +1599,7 @@
       <c r="S9" s="13"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" ht="44" thickBot="1">
+    <row r="10" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1626,7 +1629,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" ht="43.5">
+    <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="54">
         <v>1</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>2</v>
       </c>
@@ -1712,11 +1715,11 @@
       <c r="S12" s="13"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="68">
         <v>3</v>
       </c>
       <c r="C13" s="2">
@@ -1748,11 +1751,11 @@
       <c r="S13" s="13"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="69">
         <v>3</v>
       </c>
       <c r="C14" s="6">
@@ -1784,7 +1787,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" ht="29.5" thickBot="1">
+    <row r="15" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1814,7 +1817,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" ht="29">
+    <row r="16" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="54">
         <v>1</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1">
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57">
         <v>2</v>
       </c>
@@ -1900,11 +1903,11 @@
       <c r="S17" s="13"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="70">
         <v>3</v>
       </c>
       <c r="C18" s="8">
@@ -1936,11 +1939,11 @@
       <c r="S18" s="13"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>2</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="71">
         <v>3</v>
       </c>
       <c r="C19" s="13">
@@ -1972,11 +1975,11 @@
       <c r="S19" s="13"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" ht="29.5" thickBot="1">
+    <row r="20" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="72">
         <v>3</v>
       </c>
       <c r="C20" s="11">
@@ -2008,7 +2011,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" ht="29.5" thickBot="1">
+    <row r="21" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2038,7 +2041,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" ht="29">
+    <row r="22" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1">
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2</v>
       </c>
@@ -2124,11 +2127,11 @@
       <c r="S23" s="13"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="70">
         <v>3</v>
       </c>
       <c r="C24" s="8">
@@ -2160,11 +2163,11 @@
       <c r="S24" s="13"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>2</v>
       </c>
-      <c r="B25" s="82">
+      <c r="B25" s="71">
         <v>3</v>
       </c>
       <c r="C25" s="13">
@@ -2196,11 +2199,11 @@
       <c r="S25" s="13"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" ht="29.5" thickBot="1">
+    <row r="26" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>3</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="72">
         <v>3</v>
       </c>
       <c r="C26" s="11">
@@ -2232,7 +2235,7 @@
       <c r="S26" s="13"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1">
+    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2262,7 +2265,7 @@
       <c r="S27" s="13"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" ht="29">
+    <row r="28" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1</v>
       </c>
@@ -2316,7 +2319,7 @@
       </c>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" ht="29.5" thickBot="1">
+    <row r="29" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>2</v>
       </c>
@@ -2356,11 +2359,11 @@
       </c>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="70">
         <v>3</v>
       </c>
       <c r="C30" s="8">
@@ -2392,11 +2395,11 @@
       <c r="S30" s="13"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>2</v>
       </c>
-      <c r="B31" s="82">
+      <c r="B31" s="71">
         <v>3</v>
       </c>
       <c r="C31" s="13">
@@ -2428,11 +2431,11 @@
       <c r="S31" s="13"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" ht="29.5" thickBot="1">
+    <row r="32" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>3</v>
       </c>
-      <c r="B32" s="83">
+      <c r="B32" s="72">
         <v>3</v>
       </c>
       <c r="C32" s="11">
@@ -2464,7 +2467,7 @@
       <c r="S32" s="13"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" ht="43.5">
+    <row r="33" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2494,7 +2497,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" ht="29">
+    <row r="34" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2524,7 +2527,7 @@
       <c r="S34" s="13"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" ht="29">
+    <row r="35" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2554,7 +2557,7 @@
       <c r="S35" s="13"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1">
+    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2584,7 +2587,7 @@
       <c r="S36" s="13"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" ht="43.5">
+    <row r="37" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>1</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
         <v>2</v>
       </c>
@@ -2670,7 +2673,7 @@
       <c r="S38" s="13"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" ht="15" thickBot="1">
+    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>3</v>
       </c>
@@ -2704,11 +2707,11 @@
       <c r="S39" s="13"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20" ht="29.5" thickBot="1">
+    <row r="40" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="65">
         <v>1</v>
       </c>
-      <c r="B40" s="84">
+      <c r="B40" s="73">
         <v>3</v>
       </c>
       <c r="C40" s="66">
@@ -2740,7 +2743,7 @@
       <c r="S40" s="13"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="1:20" ht="43.5">
+    <row r="41" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2770,7 +2773,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="1:20" ht="43.5">
+    <row r="42" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2800,7 +2803,7 @@
       <c r="S42" s="13"/>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="1:20" ht="43.5">
+    <row r="43" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2830,7 +2833,7 @@
       <c r="S43" s="13"/>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" spans="1:20" ht="43.5">
+    <row r="44" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2860,7 +2863,7 @@
       <c r="S44" s="13"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="1:20" ht="43.5">
+    <row r="45" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2890,7 +2893,7 @@
       <c r="S45" s="13"/>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" spans="1:20" ht="43.5">
+    <row r="46" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2920,7 +2923,7 @@
       <c r="S46" s="13"/>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" spans="1:20" ht="44" thickBot="1">
+    <row r="47" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="28"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2950,7 +2953,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="30"/>
     </row>
-    <row r="48" spans="1:20" ht="29">
+    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>1</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
         <v>2</v>
       </c>
@@ -3036,7 +3039,7 @@
       <c r="S49" s="13"/>
       <c r="T49" s="30"/>
     </row>
-    <row r="50" spans="1:20" ht="15" thickBot="1">
+    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>3</v>
       </c>
@@ -3070,11 +3073,11 @@
       <c r="S50" s="13"/>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="1:20" ht="29">
+    <row r="51" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
         <v>1</v>
       </c>
-      <c r="B51" s="82">
+      <c r="B51" s="71">
         <v>3</v>
       </c>
       <c r="C51" s="13">
@@ -3106,11 +3109,11 @@
       <c r="S51" s="13"/>
       <c r="T51" s="30"/>
     </row>
-    <row r="52" spans="1:20" ht="29.5" thickBot="1">
+    <row r="52" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>2</v>
       </c>
-      <c r="B52" s="83">
+      <c r="B52" s="72">
         <v>3</v>
       </c>
       <c r="C52" s="11">
@@ -3142,7 +3145,7 @@
       <c r="S52" s="13"/>
       <c r="T52" s="30"/>
     </row>
-    <row r="53" spans="1:20" ht="29.5" thickBot="1">
+    <row r="53" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="28"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3172,7 +3175,7 @@
       <c r="S53" s="13"/>
       <c r="T53" s="30"/>
     </row>
-    <row r="54" spans="1:20" ht="43.5">
+    <row r="54" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>1</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
         <v>2</v>
       </c>
@@ -3258,7 +3261,7 @@
       <c r="S55" s="13"/>
       <c r="T55" s="30"/>
     </row>
-    <row r="56" spans="1:20" ht="15" thickBot="1">
+    <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>3</v>
       </c>
@@ -3292,11 +3295,11 @@
       <c r="S56" s="13"/>
       <c r="T56" s="30"/>
     </row>
-    <row r="57" spans="1:20" ht="29">
+    <row r="57" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="28">
         <v>1</v>
       </c>
-      <c r="B57" s="82">
+      <c r="B57" s="71">
         <v>3</v>
       </c>
       <c r="C57" s="13">
@@ -3328,11 +3331,11 @@
       <c r="S57" s="13"/>
       <c r="T57" s="30"/>
     </row>
-    <row r="58" spans="1:20" ht="29.5" thickBot="1">
+    <row r="58" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>2</v>
       </c>
-      <c r="B58" s="83">
+      <c r="B58" s="72">
         <v>3</v>
       </c>
       <c r="C58" s="11">
@@ -3364,7 +3367,7 @@
       <c r="S58" s="13"/>
       <c r="T58" s="30"/>
     </row>
-    <row r="59" spans="1:20" ht="44" thickBot="1">
+    <row r="59" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="28"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -3394,7 +3397,7 @@
       <c r="S59" s="13"/>
       <c r="T59" s="30"/>
     </row>
-    <row r="60" spans="1:20" ht="43.5">
+    <row r="60" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>1</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="28">
         <v>2</v>
       </c>
@@ -3480,7 +3483,7 @@
       <c r="S61" s="13"/>
       <c r="T61" s="30"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1">
+    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>3</v>
       </c>
@@ -3514,11 +3517,11 @@
       <c r="S62" s="13"/>
       <c r="T62" s="30"/>
     </row>
-    <row r="63" spans="1:20" ht="29">
+    <row r="63" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>1</v>
       </c>
-      <c r="B63" s="82">
+      <c r="B63" s="71">
         <v>3</v>
       </c>
       <c r="C63" s="13">
@@ -3550,11 +3553,11 @@
       <c r="S63" s="13"/>
       <c r="T63" s="30"/>
     </row>
-    <row r="64" spans="1:20" ht="29.5" thickBot="1">
+    <row r="64" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <v>2</v>
       </c>
-      <c r="B64" s="83">
+      <c r="B64" s="72">
         <v>3</v>
       </c>
       <c r="C64" s="11">
@@ -3586,7 +3589,7 @@
       <c r="S64" s="13"/>
       <c r="T64" s="30"/>
     </row>
-    <row r="65" spans="1:20" ht="43.5">
+    <row r="65" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" s="61"/>
       <c r="C65" s="13"/>
@@ -3616,7 +3619,7 @@
       <c r="S65" s="13"/>
       <c r="T65" s="30"/>
     </row>
-    <row r="66" spans="1:20" ht="73" thickBot="1">
+    <row r="66" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
